--- a/Golf.Tournament/scorecards/579cabc63d2e0b699c211132.xlsx
+++ b/Golf.Tournament/scorecards/579cabc63d2e0b699c211132.xlsx
@@ -1036,15 +1036,15 @@
         <v>128</v>
       </c>
       <c r="J2">
-        <f ca="1">INDIRECT("Scoresheet_" &amp; $C2 &amp; "!W7")</f>
+        <f ca="1">INDIRECT("Scoresheet_" &amp; $C2 &amp; "!X7")</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f ca="1">INDIRECT("Scoresheet_" &amp; $C2 &amp; "!W12")</f>
+        <f ca="1">INDIRECT("Scoresheet_" &amp; $C2 &amp; "!X12")</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f ca="1">INDIRECT("Scoresheet_" &amp; $C2 &amp; "!W13")</f>
+        <f ca="1">INDIRECT("Scoresheet_" &amp; $C2 &amp; "!X13")</f>
         <v>0</v>
       </c>
     </row>
@@ -1077,15 +1077,15 @@
         <v>128</v>
       </c>
       <c r="J3">
-        <f ca="1">INDIRECT("Scoresheet_" &amp; $C3 &amp; "!O7")</f>
+        <f ca="1">INDIRECT("Scoresheet_" &amp; $C3 &amp; "!P7")</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f ca="1">INDIRECT("Scoresheet_" &amp; $C3 &amp; "!O12")</f>
+        <f ca="1">INDIRECT("Scoresheet_" &amp; $C3 &amp; "!P12")</f>
         <v>0</v>
       </c>
       <c r="L3">
-        <f ca="1">INDIRECT("Scoresheet_" &amp; $C3 &amp; "!O13")</f>
+        <f ca="1">INDIRECT("Scoresheet_" &amp; $C3 &amp; "!P13")</f>
         <v>0</v>
       </c>
     </row>

--- a/Golf.Tournament/scorecards/579cabc63d2e0b699c211132.xlsx
+++ b/Golf.Tournament/scorecards/579cabc63d2e0b699c211132.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8010" activeTab="3"/>
